--- a/Technical_Report/classes.xlsx
+++ b/Technical_Report/classes.xlsx
@@ -1355,7 +1355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1386,8 +1386,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1395,17 +1401,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,42 +1711,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <pane xSplit="2805" topLeftCell="H1" activePane="topRight"/>
-      <selection pane="topRight" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="90" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="89.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="78.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1735,2209 +1757,2360 @@
       <c r="H1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>356</v>
       </c>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="5" t="s">
         <v>130</v>
       </c>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
         <v>360</v>
       </c>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="5" t="s">
         <v>363</v>
       </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
         <v>365</v>
       </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L9" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="5" t="s">
         <v>367</v>
       </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="5" t="s">
         <v>365</v>
       </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L13" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="5" t="s">
         <v>374</v>
       </c>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="L15" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="5" t="s">
         <v>293</v>
       </c>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L16" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="5" t="s">
         <v>377</v>
       </c>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="5" t="s">
         <v>379</v>
       </c>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="5" t="s">
         <v>383</v>
       </c>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
         <v>1000000</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K23" s="5">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K24" s="5">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="5" t="s">
         <v>136</v>
       </c>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="L26" t="s">
+      <c r="K26" s="5"/>
+      <c r="L26" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="5" t="s">
         <v>365</v>
       </c>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="5" t="s">
         <v>394</v>
       </c>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="K29" s="5">
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="5" t="s">
         <v>396</v>
       </c>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" s="5">
+        <v>1</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="K30" s="5">
+        <v>1</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="5" t="s">
         <v>398</v>
       </c>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="L31" t="s">
+      <c r="K31" s="5"/>
+      <c r="L31" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K32" s="5">
+        <v>1</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="5" t="s">
         <v>401</v>
       </c>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="I33" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" s="5"/>
+      <c r="L33" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" s="5">
+        <v>1</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="K34" s="5">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" s="5">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K35" s="5"/>
+      <c r="L35" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="5" t="s">
         <v>144</v>
       </c>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" s="5">
+        <v>1</v>
+      </c>
+      <c r="L36" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" s="5">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" s="5"/>
+      <c r="L37" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" s="5"/>
+      <c r="L38" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="K39" s="5">
+        <v>1</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="L40" t="s">
+      <c r="K40" s="5"/>
+      <c r="L40" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="5" t="s">
         <v>401</v>
       </c>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F41" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L41" t="s">
+      <c r="K41" s="5"/>
+      <c r="L41" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L42" t="s">
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="5" t="s">
         <v>152</v>
       </c>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F43" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43" s="5"/>
+      <c r="L43" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="5" t="s">
         <v>346</v>
       </c>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F44" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L44" t="s">
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44" s="5" t="s">
         <v>121</v>
       </c>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F45" t="s">
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="L45" t="s">
+      <c r="K45" s="5"/>
+      <c r="L45" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="5" t="s">
         <v>346</v>
       </c>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F46" t="s">
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L46" t="s">
+      <c r="K46" s="5"/>
+      <c r="L46" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="5" t="s">
         <v>147</v>
       </c>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L47" t="s">
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F48" t="s">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" s="5"/>
+      <c r="I48" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L48" t="s">
+      <c r="K48" s="5"/>
+      <c r="L48" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L49" t="s">
+      <c r="K49" s="5"/>
+      <c r="L49" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="5" t="s">
         <v>151</v>
       </c>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="K50" s="5">
+        <v>1</v>
+      </c>
+      <c r="L50" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="K51" s="5">
+        <v>1</v>
+      </c>
+      <c r="L51" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="L52" t="s">
+      <c r="K52" s="5"/>
+      <c r="L52" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="5" t="s">
         <v>386</v>
       </c>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F53" t="s">
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="K53" s="5">
+        <v>1</v>
+      </c>
+      <c r="L53" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="5" t="s">
         <v>424</v>
       </c>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F54" t="s">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" s="5">
+        <v>1</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L54" t="s">
+      <c r="K54" s="5"/>
+      <c r="L54" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="5" t="s">
         <v>379</v>
       </c>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F55" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="L55" t="s">
+      <c r="K55" s="5"/>
+      <c r="L55" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55" s="5" t="s">
         <v>158</v>
       </c>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F56" t="s">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" s="5">
+        <v>1</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="L56" t="s">
+      <c r="K56" s="5"/>
+      <c r="L56" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="5" t="s">
         <v>428</v>
       </c>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F57" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="L57" t="s">
+      <c r="K57" s="5"/>
+      <c r="L57" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57" s="5" t="s">
         <v>428</v>
       </c>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F58" t="s">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L58" t="s">
+      <c r="K58" s="5"/>
+      <c r="L58" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="5" t="s">
         <v>325</v>
       </c>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F59" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="L59" t="s">
+      <c r="K59" s="5"/>
+      <c r="L59" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59" s="5" t="s">
         <v>428</v>
       </c>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F60" t="s">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L60" t="s">
+      <c r="K60" s="5"/>
+      <c r="L60" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60" s="5" t="s">
         <v>293</v>
       </c>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E61" s="5">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="K61" s="5">
+        <v>1</v>
+      </c>
+      <c r="L61" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="5">
         <v>1</v>
       </c>
     </row>
